--- a/biology/Mycologie/Cortinarius_caperatus/Cortinarius_caperatus.xlsx
+++ b/biology/Mycologie/Cortinarius_caperatus/Cortinarius_caperatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius caperatus
-Cortinarius caperatus (autrefois Pholiota caperata), de son nom vernaculaire français, le cortinaire ridé est une espèce de champignons basidiomycètes aujourd'hui classée parmi les cortinaires. À vrai dire, cette espèce d'aspect intermédiaire entre les agarics, les pholiotes, les hébélomes et les cortinaires est passée de genre en genre à plusieurs reprises et a, pendant un temps, constitué un genre à elle seule sous le nom de Rozites caperatus[1].
+Cortinarius caperatus (autrefois Pholiota caperata), de son nom vernaculaire français, le cortinaire ridé est une espèce de champignons basidiomycètes aujourd'hui classée parmi les cortinaires. À vrai dire, cette espèce d'aspect intermédiaire entre les agarics, les pholiotes, les hébélomes et les cortinaires est passée de genre en genre à plusieurs reprises et a, pendant un temps, constitué un genre à elle seule sous le nom de Rozites caperatus.
 </t>
         </is>
       </c>
@@ -514,45 +526,121 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial accepté
-Cortinarius caperatus (Pers.) Fr. 1838
-Synonymes
-Agaricus caperatus Pers. 1796
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cortinarius caperatus (Pers.) Fr. 1838
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus caperatus Pers. 1796
 Dryophila caperata (Pers.) Quél. 1886
 Pholiota caperata (Pers.) Gillet 1874
 Rozites caperatus (Pers.) P. Karst. 1879
-Togaria caperata (Pers.) W.G. Sm. 1908
-Noms vernaculaires
-Maintenant reclassée dans le genre Cortinarius, cette espèce est passé en français, sous le nom de cortinaire ridé, autrefois Pholiote ridée.
+Togaria caperata (Pers.) W.G. Sm. 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintenant reclassée dans le genre Cortinarius, cette espèce est passé en français, sous le nom de cortinaire ridé, autrefois Pholiote ridée.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cortinarius_caperatus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chapeau 5 à 10-14 cm, arrondi puis s'étalant, jaune roux, ridé vers le bord et couvert radialement de fines mèches fugaces blanches à légèrement rosées. La marge, souvent incurvée, se fendille avec l'âge.
 Lames inégales et fortement dentelées ; sporée brun-roux.
@@ -561,69 +649,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cortinarius_caperatus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortinaire ridé vient d'août à octobre, sous feuillus ou conifères, surtout en montagne mais éventuellement en plaine. Absente de certaines régions, elle peut abonder dans d'autres : son terrain de prédilection est un sol pauvre, acide et sablonneux[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cortinarius_caperatus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un bon comestible à la chair consistante sur les exemplaires jeunes, comparable aux meilleurs agarics, à consommer rapidement car son pied devient fibreux et est facilement véreux[3].
-L'espèce a une forte capacité de concentration du césium 137[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,10 +670,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortinaire ridé vient d'août à octobre, sous feuillus ou conifères, surtout en montagne mais éventuellement en plaine. Absente de certaines régions, elle peut abonder dans d'autres : son terrain de prédilection est un sol pauvre, acide et sablonneux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un bon comestible à la chair consistante sur les exemplaires jeunes, comparable aux meilleurs agarics, à consommer rapidement car son pied devient fibreux et est facilement véreux.
+L'espèce a une forte capacité de concentration du césium 137.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cortinarius_caperatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon peut par sa couleur évoquer certains hébélomes (de taille généralement plus modeste) et par son port certains cortinaires massifs, des agarics, des leucoagarics ou des phaeolépiotes, mais ne ressemble en fait qu'à lui-même: les rides de ses bords, la couleur claire de son voile de méchules, son anneau strié et son habitat particulier permettent de l'identifier assez aisément.
 </t>
